--- a/DOWNLOADS/EDITAIS/CARONA - Estadual de Educação Tecnológica Paula Souza – CEETEPS/CARONA - Estadual de Educação Tecnológica Paula Souza – CEETEPS_master.xlsx
+++ b/DOWNLOADS/EDITAIS/CARONA - Estadual de Educação Tecnológica Paula Souza – CEETEPS/CARONA - Estadual de Educação Tecnológica Paula Souza – CEETEPS_master.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -43,12 +43,15 @@
     <t>ARQUIVO</t>
   </si>
   <si>
-    <t>-</t>
+    <t/>
   </si>
   <si>
     <t>CAIXA DE SOM AMPLIFICADA. QUANTIDADE: 204. DESCRIÇÃO TÉCNICA: Objeto: Caixa de som; Confeccionada em: gabinete plástico, com alça e rodas para transporte; Características técnicas: Caixa de som amplificada, com alto falante de 15 polegadas, com 02 vias ativas, aplicação P.A, monitor e fly; driver titânio; Tipo de visor: digital; Potência: mínima de 330w 4 ohms / 200w 8 ohms Entradas: Usb e cartão sd, bluetooth, microfone p10, linha xlr e rca; Saídas: Linha XLR, saída para caixa de som passiva speakon; Potência: mínima de (330w 4 ohms / 200w 8 ohms); Tipo de alimentação: Bivolt automático ou sistema de chave (110/220 v); Acessórios: controle remoto, cabo de energia; Peso: Caixa de som pesando aproximadamente 17 kg; Tamanho: Medindo aproximadamente (a 60 x | 42 x p 38) cm. MANUAL: O equipamento deve vir acompanhado de “Manual de Instruções” GARANTIA: Garantia/validade do produto, será no mínimo 12 (doze) meses, contados a partir da data de recebimento definitivo do objeto licitado. Durante o período de garantia, o equipamento a presentar algum defeito, deverão ser substituídas sem nenhum ônus para a Contratante, peças ou partes defeituosas, salvo quando o defeito for provocado por uso indevido do produto, devidamente comprovado. ENTREGA: O produto deverá ser entregue montado e embalado. ACONDICIONAMENTO DOS BENS: Que os bens devam ser preferencialmente, acondicionados em embalagem individual adequada, com o menor volume possível, que utilize materiais recicláveis, de forma a garantir a máxima proteção durante o transporte e o armazenamento. Não deverão ser utilizadas fitas adesivas em contato direto com o produto. Rotulagem da embalagem — devem constar do lado externo da embalagem rótulos de fácil leitura com identificação do fabricante e do fornecedor, indicação de voltagem / frequência e orientações sobre manuseio. MARCA: - MODELO: - PROCEDÊNCIA:</t>
   </si>
   <si>
+    <t>CARONA - Estadual de Educação Tecnológica Paula Souza – CEETEPS</t>
+  </si>
+  <si>
     <t>CAIXA DE SOM PARA COMPUTADOR. QUANTIDADE: 805. DESCRIÇÃO TÉCNICA: Caixa de som para computador; Quantidade: 2 Caixas de Som Frontais de 10 Watts Rms e 1 Subwoofer Ativo de 15 Watts Rms; Botão: Liga/desliga (push-boton); Luz tipo: Led Indicador e Botão de Volume; Alimentação 110/220 V; Acessório: Acompanha Cabos Rca e P2; MANUAL: O equipamento deve vir acompanhado de “Manual de Instruções” GARANTIA: Garantia/validade do produto, será no mínimo 12 (doze) meses, contados a partir da data de recebimento definitivo objeto licitado; Durante o período de garantia, se houver necessidade, deverão ser substituídas sem nenhum ônus para a Contratante, peças ou partes defeituosas, salvo quando o defeito for provocado por uso indevido do produto, devidamente comprovado. ENTREGA: O produto deverá ser entregue montado e embalado. ACONDICIONAMENTO DOS BENS: Que os bens devam ser preferencialmente, acondicionados em embalagem individual adequada, com o menor volume possível, que utilize materiais recicláveis, de forma a garantir a máxima proteção durante o transporte e o armazenamento. Não deverão ser utilizadas fitas adesivas em contato direto com o produto. Rotulagem da embalagem — devem constar do lado externo da embalagem rótulos de fácil leitura com identificação do fabricante e do fornecedor, indicação de voltagem / frequência e orientações sobre manuseio. MARCA: - MODELO: - PROCEDÊNCIA:</t>
   </si>
   <si>
@@ -56,16 +59,14 @@
   </si>
   <si>
     <t>MICROFONE SEM FIO. QUANTIDADE: 129. DESCRIÇÃO TÉCNICA: Microfone duplo de mão; Tipo bastão sem fio; Corpo: em ABS Moldado ou em metal; Base receptora com display LCD ou LED; Receptor duplo de 02 (dois) canais; Cabo de áudio com plug P10; Constituído De: Botão/chave liga/desliga e chave mute; Faixa de frequência ANATEL NO MINIMO (643 — 661 MHZ); Resposta de frequência de no mínimo (50HZ * 15KHZ); Distância da Faixa de alcance no mínimo 90 m; Com 02 (duas) Capsulas para o microfone; Tipo de cápsulas: dinâmicas apresentam padrão polar cardioide; 01 (um) Receptor Duplo; 02 (duas) Antena Interna Controlada Por Microprocessador; Impedância: de saída de no mínimo 200 Ohms para Conector XLR; Nível de Saída: de Áudio XLR; Imagem de Rejeição: Maior Que 50 Db; Acessórios: (04 Pilhas Tamanho AA (02 para cada microfone), (02) transmissores de mão com capsula, 01 (um) receptor duplo e estojo para os microfones); Voltagem: bivolt; Alimentação: fonte externa homologada pela Anatel CA/CC; 12 a 15 VDC a 160 mA; MANUAL: O equipamento deve vir acompanhado de “Manual de Instruções”. GARANTIA: Garantia/validade do produto, será no mínimo 12 (doze) meses, contados a partir da data de recebimento definitivo do objeto licitado. Durante o período de garantia, o equipamento a presentar algum defeito, deverão ser substituídas sem nenhum ônus para a Contratante, peças ou partes defeituosas, salvo quando o defeito for provocado por uso indevido do produto, devidamente comprovado. ENTREGA: O Produto deverá ser entregue montado. ACONDICIONAMENTO DOS BENS: Que os bens devam ser preferencialmente, acondicionados em embalagem individual adequada, com o menor volume possível, que utilize materiais recicláveis, de forma a garantir a máxima proteção durante o transporte e o armazenamento. Não deverão ser utilizadas fitas adesivas em contato direto com o produto. Rotulagem da embalagem — devem constar do lado externo da embalagem rótulos de fácil leitura com identificação do fabricante e do fornecedor, indicação de voltagem / frequência e orientações sobre manuseio. MARCA: - MODELO: - PROCEDÊNCIA:</t>
-  </si>
-  <si>
-    <t>CARONA - Estadual de Educação Tecnológica Paula Souza – CEETEPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,10 +77,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -100,34 +106,64 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -136,10 +172,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -177,69 +213,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -263,54 +301,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -320,7 +357,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -329,7 +366,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -338,7 +375,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -346,10 +383,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -378,7 +415,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -391,13 +428,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -415,156 +451,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/EDITAIS/CARONA - Estadual de Educação Tecnológica Paula Souza – CEETEPS/CARONA - Estadual de Educação Tecnológica Paula Souza – CEETEPS_master.xlsx
+++ b/DOWNLOADS/EDITAIS/CARONA - Estadual de Educação Tecnológica Paula Souza – CEETEPS/CARONA - Estadual de Educação Tecnológica Paula Souza – CEETEPS_master.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Nº</t>
   </si>
@@ -43,30 +43,26 @@
     <t>ARQUIVO</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>CAIXA DE SOM AMPLIFICADA. QUANTIDADE: 204. DESCRIÇÃO TÉCNICA: Objeto: Caixa de som; Confeccionada em: gabinete plástico, com alça e rodas para transporte; Características técnicas: Caixa de som amplificada, com alto falante de 15 polegadas, com 02 vias ativas, aplicação P.A, monitor e fly; driver titânio; Tipo de visor: digital; Potência: mínima de 330w 4 ohms / 200w 8 ohms Entradas: Usb e cartão sd, bluetooth, microfone p10, linha xlr e rca; Saídas: Linha XLR, saída para caixa de som passiva speakon; Potência: mínima de (330w 4 ohms / 200w 8 ohms); Tipo de alimentação: Bivolt automático ou sistema de chave (110/220 v); Acessórios: controle remoto, cabo de energia; Peso: Caixa de som pesando aproximadamente 17 kg; Tamanho: Medindo aproximadamente (a 60 x | 42 x p 38) cm. MANUAL: O equipamento deve vir acompanhado de “Manual de Instruções” GARANTIA: Garantia/validade do produto, será no mínimo 12 (doze) meses, contados a partir da data de recebimento definitivo do objeto licitado. Durante o período de garantia, o equipamento a presentar algum defeito, deverão ser substituídas sem nenhum ônus para a Contratante, peças ou partes defeituosas, salvo quando o defeito for provocado por uso indevido do produto, devidamente comprovado. ENTREGA: O produto deverá ser entregue montado e embalado. ACONDICIONAMENTO DOS BENS: Que os bens devam ser preferencialmente, acondicionados em embalagem individual adequada, com o menor volume possível, que utilize materiais recicláveis, de forma a garantir a máxima proteção durante o transporte e o armazenamento. Não deverão ser utilizadas fitas adesivas em contato direto com o produto. Rotulagem da embalagem — devem constar do lado externo da embalagem rótulos de fácil leitura com identificação do fabricante e do fornecedor, indicação de voltagem / frequência e orientações sobre manuseio. MARCA: - MODELO: - PROCEDÊNCIA:</t>
+    <t>CAIXA DE SOM AMPLIFICADA; QUANTIDADE: 204; DESCRIÇÃO TÉCNICA: Objeto: Caixa de som; Confeccionada em: gabinete plástico, com alça e rodas para transporte; Características técnicas: Caixa de som amplificada, com alto falante de 15 polegadas, com 02 vias ativas, aplicação P.A, monitor e fly; driver titânio; Tipo de visor: digital; Potência: mínima de 330w 4 ohms / 200w 8 ohms Entradas: Usb e cartão sd, bluetooth, microfone p10, linha xlr e rca; Saídas: Linha XLR, saída para caixa de som passiva speakon; Potência: mínima de (330w 4 ohms / 200w 8 ohms); Tipo de alimentação: Bivolt automático ou sistema de chave (110/220 v); Acessórios: controle remoto, cabo de energia; Peso: Caixa de som pesando aproximadamente 17 kg; Tamanho: Medindo aproximadamente (a 60 x | 42 x p 38) cm. MANUAL: O equipamento deve vir acompanhado de “Manual de Instruções” GARANTIA: Garantia/validade do produto, será no mínimo 12 (doze) meses, contados a partir da data de recebimento definitivo do objeto licitado. Durante o período de garantia, o equipamento a presentar algum defeito, deverão ser substituídas sem nenhum ônus para a Contratante, peças ou partes defeituosas, salvo quando o defeito for provocado por uso indevido do produto, devidamente comprovado. ENTREGA: O produto deverá ser entregue montado e embalado. ACONDICIONAMENTO DOS BENS: Que os bens devam ser preferencialmente, acondicionados em embalagem individual adequada, com o menor volume possível, que utilize materiais recicláveis, de forma a garantir a máxima proteção durante o transporte e o armazenamento. Não deverão ser utilizadas fitas adesivas em contato direto com o produto. Rotulagem da embalagem — devem constar do lado externo da embalagem rótulos de fácil leitura com identificação do fabricante e do fornecedor, indicação de voltagem / frequência e orientações sobre manuseio. MARCA: - MODELO: - PROCEDÊNCIA:</t>
+  </si>
+  <si>
+    <t>CAIXA DE SOM PARA COMPUTADOR; QUANTIDADE: 805; DESCRIÇÃO TÉCNICA: Caixa de som para computador; Quantidade: 2 Caixas de Som Frontais de 10 Watts Rms e 1 Subwoofer Ativo de 15 Watts Rms; Botão: Liga/desliga (push-boton); Luz tipo: Led Indicador e Botão de Volume; Alimentação 110/220 V; Acessório: Acompanha Cabos Rca e P2; MANUAL: O equipamento deve vir acompanhado de “Manual de Instruções” GARANTIA: Garantia/validade do produto, será no mínimo 12 (doze) meses, contados a partir da data de recebimento definitivo objeto licitado; Durante o período de garantia, se houver necessidade, deverão ser substituídas sem nenhum ônus para a Contratante, peças ou partes defeituosas, salvo quando o defeito for provocado por uso indevido do produto, devidamente comprovado. ENTREGA: O produto deverá ser entregue montado e embalado. ACONDICIONAMENTO DOS BENS: Que os bens devam ser preferencialmente, acondicionados em embalagem individual adequada, com o menor volume possível, que utilize materiais recicláveis, de forma a garantir a máxima proteção durante o transporte e o armazenamento. Não deverão ser utilizadas fitas adesivas em contato direto com o produto. Rotulagem da embalagem — devem constar do lado externo da embalagem rótulos de fácil leitura com identificação do fabricante e do fornecedor, indicação de voltagem / frequência e orientações sobre manuseio. MARCA: - MODELO: - PROCEDÊNCIA:</t>
+  </si>
+  <si>
+    <t>CÂMERA WEBCAM; QUANTIDADE: 805; DESCRIÇÃO TÉCNICA: Câmera: WEBCAM; Tipo: Videochamada; Campo de Visão: de no mínimo 78º; Tipo de Foco: Automático; Tipo de Cortina de Privacidade Integrada; Tecnologia: Full Hd; Resolução: 1080p (1920x1080 Pixels); Tecnologia: Clipe Universal de Ajuste Aos Monitores, Detecção de Movimentos; Vídeo e Foto, Rastreio de Rosto; Acessórios: Com 02 Microfones Omnidirecionais, Plug-and-play Via Usb 2.0; Características especiais: Compressão de Vídeo H.264, Controles de Panorâmica, Inclinação e Zoom; GARANTIA: O equipamento deve vir acompanhado de “Manual de Instruções”. Garantia/validade do produto, será no mínimo 12 (doze) meses, contados a partir da data de recebimento definitivo objeto licitado. Durante o período de garantia, se houver necessidade, deverão ser substituídas sem nenhum ônus para a Contratante, peças ou partes defeituosas, salvo quando o defeito for provocado por uso indevido do produto, devidamente comprovado. ENTREGA: O produto deverá ser entregue montado e embalado. ACONDICIONAMENTO DOS BENS: Que os bens devam ser preferencialmente, acondicionados em embalagem individual adequada, com o menor volume possível, que utilize materiais recicláveis, de forma a garantir a máxima proteção durante o transporte e o armazenamento; Não deverão ser utilizadas fitas adesivas em contato direto com o produto. Rotulagem da embalagem — devem constar do lado externo da embalagem rótulos de fácil leitura com identificação do fabricante e do fornecedor, indicação de voltagem / frequência e orientações sobre manuseio. MARCA: - MODELO: - PROCEDÊNCIA:</t>
+  </si>
+  <si>
+    <t>MICROFONE SEM FIO; QUANTIDADE: 129; DESCRIÇÃO TÉCNICA: Microfone duplo de mão; Tipo bastão sem fio; Corpo: em ABS Moldado ou em metal; Base receptora com display LCD ou LED; Receptor duplo de 02 (dois) canais; Cabo de áudio com plug P10; Constituído De: Botão/chave liga/desliga e chave mute; Faixa de frequência ANATEL NO MINIMO (643 — 661 MHZ); Resposta de frequência de no mínimo (50HZ * 15KHZ); Distância da Faixa de alcance no mínimo 90 m; Com 02 (duas) Capsulas para o microfone; Tipo de cápsulas: dinâmicas apresentam padrão polar cardioide; 01 (um) Receptor Duplo; 02 (duas) Antena Interna Controlada Por Microprocessador; Impedância: de saída de no mínimo 200 Ohms para Conector XLR; Nível de Saída: de Áudio XLR; Imagem de Rejeição: Maior Que 50 Db; Acessórios: (04 Pilhas Tamanho AA (02 para cada microfone), (02) transmissores de mão com capsula, 01 (um) receptor duplo e estojo para os microfones); Voltagem: bivolt; Alimentação: fonte externa homologada pela Anatel CA/CC; 12 a 15 VDC a 160 mA; MANUAL: O equipamento deve vir acompanhado de “Manual de Instruções”. GARANTIA: Garantia/validade do produto, será no mínimo 12 (doze) meses, contados a partir da data de recebimento definitivo do objeto licitado. Durante o período de garantia, o equipamento a presentar algum defeito, deverão ser substituídas sem nenhum ônus para a Contratante, peças ou partes defeituosas, salvo quando o defeito for provocado por uso indevido do produto, devidamente comprovado. ENTREGA: O Produto deverá ser entregue montado. ACONDICIONAMENTO DOS BENS: Que os bens devam ser preferencialmente, acondicionados em embalagem individual adequada, com o menor volume possível, que utilize materiais recicláveis, de forma a garantir a máxima proteção durante o transporte e o armazenamento. Não deverão ser utilizadas fitas adesivas em contato direto com o produto. Rotulagem da embalagem — devem constar do lado externo da embalagem rótulos de fácil leitura com identificação do fabricante e do fornecedor, indicação de voltagem / frequência e orientações sobre manuseio. MARCA: - MODELO: - PROCEDÊNCIA:</t>
   </si>
   <si>
     <t>CARONA - Estadual de Educação Tecnológica Paula Souza – CEETEPS</t>
-  </si>
-  <si>
-    <t>CAIXA DE SOM PARA COMPUTADOR. QUANTIDADE: 805. DESCRIÇÃO TÉCNICA: Caixa de som para computador; Quantidade: 2 Caixas de Som Frontais de 10 Watts Rms e 1 Subwoofer Ativo de 15 Watts Rms; Botão: Liga/desliga (push-boton); Luz tipo: Led Indicador e Botão de Volume; Alimentação 110/220 V; Acessório: Acompanha Cabos Rca e P2; MANUAL: O equipamento deve vir acompanhado de “Manual de Instruções” GARANTIA: Garantia/validade do produto, será no mínimo 12 (doze) meses, contados a partir da data de recebimento definitivo objeto licitado; Durante o período de garantia, se houver necessidade, deverão ser substituídas sem nenhum ônus para a Contratante, peças ou partes defeituosas, salvo quando o defeito for provocado por uso indevido do produto, devidamente comprovado. ENTREGA: O produto deverá ser entregue montado e embalado. ACONDICIONAMENTO DOS BENS: Que os bens devam ser preferencialmente, acondicionados em embalagem individual adequada, com o menor volume possível, que utilize materiais recicláveis, de forma a garantir a máxima proteção durante o transporte e o armazenamento. Não deverão ser utilizadas fitas adesivas em contato direto com o produto. Rotulagem da embalagem — devem constar do lado externo da embalagem rótulos de fácil leitura com identificação do fabricante e do fornecedor, indicação de voltagem / frequência e orientações sobre manuseio. MARCA: - MODELO: - PROCEDÊNCIA:</t>
-  </si>
-  <si>
-    <t>CÂMERA WEBCAM. QUANTIDADE: 805. DESCRIÇÃO TÉCNICA: Câmera: WEBCAM; Tipo: Videochamada; Campo de Visão: de no mínimo 78º; Tipo de Foco: Automático; Tipo de Cortina de Privacidade Integrada; Tecnologia: Full Hd; Resolução: 1080p (1920x1080 Pixels); Tecnologia: Clipe Universal de Ajuste Aos Monitores, Detecção de Movimentos; Vídeo e Foto, Rastreio de Rosto; Acessórios: Com 02 Microfones Omnidirecionais, Plug-and-play Via Usb 2.0; Características especiais: Compressão de Vídeo H.264, Controles de Panorâmica, Inclinação e Zoom; GARANTIA: O equipamento deve vir acompanhado de “Manual de Instruções”. Garantia/validade do produto, será no mínimo 12 (doze) meses, contados a partir da data de recebimento definitivo objeto licitado. Durante o período de garantia, se houver necessidade, deverão ser substituídas sem nenhum ônus para a Contratante, peças ou partes defeituosas, salvo quando o defeito for provocado por uso indevido do produto, devidamente comprovado. ENTREGA: O produto deverá ser entregue montado e embalado. ACONDICIONAMENTO DOS BENS: Que os bens devam ser preferencialmente, acondicionados em embalagem individual adequada, com o menor volume possível, que utilize materiais recicláveis, de forma a garantir a máxima proteção durante o transporte e o armazenamento; Não deverão ser utilizadas fitas adesivas em contato direto com o produto. Rotulagem da embalagem — devem constar do lado externo da embalagem rótulos de fácil leitura com identificação do fabricante e do fornecedor, indicação de voltagem / frequência e orientações sobre manuseio. MARCA: - MODELO: - PROCEDÊNCIA:</t>
-  </si>
-  <si>
-    <t>MICROFONE SEM FIO. QUANTIDADE: 129. DESCRIÇÃO TÉCNICA: Microfone duplo de mão; Tipo bastão sem fio; Corpo: em ABS Moldado ou em metal; Base receptora com display LCD ou LED; Receptor duplo de 02 (dois) canais; Cabo de áudio com plug P10; Constituído De: Botão/chave liga/desliga e chave mute; Faixa de frequência ANATEL NO MINIMO (643 — 661 MHZ); Resposta de frequência de no mínimo (50HZ * 15KHZ); Distância da Faixa de alcance no mínimo 90 m; Com 02 (duas) Capsulas para o microfone; Tipo de cápsulas: dinâmicas apresentam padrão polar cardioide; 01 (um) Receptor Duplo; 02 (duas) Antena Interna Controlada Por Microprocessador; Impedância: de saída de no mínimo 200 Ohms para Conector XLR; Nível de Saída: de Áudio XLR; Imagem de Rejeição: Maior Que 50 Db; Acessórios: (04 Pilhas Tamanho AA (02 para cada microfone), (02) transmissores de mão com capsula, 01 (um) receptor duplo e estojo para os microfones); Voltagem: bivolt; Alimentação: fonte externa homologada pela Anatel CA/CC; 12 a 15 VDC a 160 mA; MANUAL: O equipamento deve vir acompanhado de “Manual de Instruções”. GARANTIA: Garantia/validade do produto, será no mínimo 12 (doze) meses, contados a partir da data de recebimento definitivo do objeto licitado. Durante o período de garantia, o equipamento a presentar algum defeito, deverão ser substituídas sem nenhum ônus para a Contratante, peças ou partes defeituosas, salvo quando o defeito for provocado por uso indevido do produto, devidamente comprovado. ENTREGA: O Produto deverá ser entregue montado. ACONDICIONAMENTO DOS BENS: Que os bens devam ser preferencialmente, acondicionados em embalagem individual adequada, com o menor volume possível, que utilize materiais recicláveis, de forma a garantir a máxima proteção durante o transporte e o armazenamento. Não deverão ser utilizadas fitas adesivas em contato direto com o produto. Rotulagem da embalagem — devem constar do lado externo da embalagem rótulos de fácil leitura com identificação do fabricante e do fornecedor, indicação de voltagem / frequência e orientações sobre manuseio. MARCA: - MODELO: - PROCEDÊNCIA:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,15 +73,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -106,64 +97,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -172,10 +133,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -213,71 +174,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -301,53 +260,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -357,7 +317,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -366,7 +326,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -375,7 +335,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -383,10 +343,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -415,7 +375,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -428,12 +388,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -451,170 +412,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3">
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="I5" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
